--- a/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
+++ b/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B59A23-7EEA-4749-A13A-DA8565C48EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62AAA7-1960-0546-876C-ADFEEE844763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54160" yWindow="-10300" windowWidth="25840" windowHeight="28300" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>qudt</t>
   </si>
   <si>
-    <t>http://qudt.org/2.1/schema/qudt</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -730,6 +727,9 @@
   </si>
   <si>
     <t>http://w3id.org/solar/i/Output/C2H4O2_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>http://qudt.org/2.1/schema/qudt/</t>
   </si>
 </sst>
 </file>
@@ -838,10 +838,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1232,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>33</v>
@@ -1263,23 +1259,23 @@
         <v>47</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1348,7 +1344,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -1359,7 +1355,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>34</v>
@@ -1370,7 +1366,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>34</v>
@@ -1381,7 +1377,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>34</v>
@@ -1392,7 +1388,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>34</v>
@@ -1403,7 +1399,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>34</v>
@@ -1414,7 +1410,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
@@ -1425,7 +1421,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>34</v>
@@ -1436,7 +1432,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
@@ -1447,7 +1443,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
@@ -1458,7 +1454,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>34</v>
@@ -1469,7 +1465,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>34</v>
@@ -1480,7 +1476,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>34</v>
@@ -1491,7 +1487,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>34</v>
@@ -1502,7 +1498,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
@@ -1513,7 +1509,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>34</v>
@@ -1524,7 +1520,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
@@ -1535,7 +1531,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>34</v>
@@ -1546,7 +1542,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>34</v>
@@ -1557,7 +1553,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>34</v>
@@ -1568,7 +1564,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>34</v>
@@ -1579,7 +1575,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>34</v>
@@ -1590,7 +1586,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>34</v>
@@ -1601,7 +1597,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>34</v>
@@ -1612,7 +1608,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>34</v>
@@ -1623,7 +1619,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>34</v>
@@ -1634,7 +1630,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>34</v>
@@ -1645,7 +1641,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>34</v>
@@ -1656,7 +1652,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>34</v>
@@ -1667,7 +1663,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>34</v>
@@ -1678,7 +1674,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>34</v>
@@ -1689,7 +1685,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>34</v>
@@ -1700,7 +1696,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>34</v>
@@ -1711,7 +1707,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>34</v>
@@ -1722,7 +1718,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>34</v>
@@ -1733,7 +1729,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>34</v>
@@ -1744,7 +1740,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>34</v>
@@ -1755,7 +1751,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>34</v>
@@ -1766,7 +1762,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>34</v>
@@ -1777,7 +1773,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>34</v>
@@ -1788,7 +1784,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>34</v>
@@ -1799,7 +1795,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>34</v>
@@ -1810,7 +1806,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>34</v>
@@ -1821,7 +1817,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>34</v>
@@ -1832,7 +1828,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>34</v>
@@ -1843,7 +1839,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>34</v>
@@ -1854,7 +1850,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>34</v>
@@ -1865,7 +1861,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>34</v>
@@ -1876,7 +1872,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>34</v>
@@ -1887,7 +1883,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>34</v>
@@ -1898,7 +1894,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>34</v>
@@ -1909,7 +1905,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>34</v>
@@ -1920,7 +1916,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>34</v>
@@ -1931,7 +1927,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>35</v>
@@ -1942,7 +1938,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>35</v>
@@ -1953,7 +1949,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>35</v>
@@ -1964,7 +1960,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>35</v>
@@ -1975,7 +1971,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>35</v>
@@ -1986,7 +1982,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>35</v>
@@ -1997,7 +1993,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>35</v>
@@ -2008,7 +2004,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>35</v>
@@ -2019,7 +2015,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>35</v>
@@ -2030,7 +2026,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>35</v>
@@ -2041,7 +2037,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>35</v>
@@ -2052,7 +2048,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>35</v>
@@ -2063,7 +2059,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>35</v>
@@ -2074,7 +2070,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>35</v>
@@ -2085,7 +2081,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>35</v>
@@ -2096,7 +2092,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>35</v>
@@ -2107,7 +2103,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>35</v>
@@ -2118,7 +2114,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>35</v>
@@ -2129,7 +2125,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>35</v>
@@ -2140,7 +2136,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>35</v>
@@ -2151,7 +2147,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>35</v>
@@ -2162,7 +2158,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>35</v>
@@ -2173,7 +2169,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>35</v>
@@ -2184,7 +2180,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>35</v>
@@ -2195,7 +2191,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>35</v>
@@ -2206,7 +2202,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>35</v>
@@ -2217,7 +2213,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>35</v>
@@ -2228,7 +2224,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>35</v>
@@ -2239,7 +2235,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>35</v>
@@ -2250,7 +2246,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>35</v>
@@ -2261,7 +2257,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>35</v>
@@ -2272,7 +2268,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>35</v>
@@ -2283,7 +2279,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>35</v>
@@ -2294,7 +2290,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>35</v>
@@ -2305,7 +2301,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>35</v>
@@ -2316,7 +2312,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>35</v>
@@ -2327,7 +2323,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>35</v>
@@ -2338,7 +2334,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>35</v>
@@ -2349,7 +2345,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>35</v>
@@ -2360,7 +2356,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>35</v>
@@ -2371,7 +2367,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>35</v>
@@ -2382,7 +2378,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>35</v>
@@ -2393,7 +2389,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>35</v>
@@ -2404,7 +2400,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>35</v>
@@ -2415,7 +2411,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>35</v>
@@ -2426,7 +2422,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>35</v>
@@ -2437,7 +2433,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>35</v>
@@ -2448,7 +2444,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>35</v>
@@ -2459,7 +2455,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>35</v>
@@ -2470,7 +2466,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>35</v>
@@ -2481,7 +2477,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>35</v>
@@ -2492,7 +2488,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>35</v>
@@ -2503,7 +2499,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>35</v>
@@ -2548,585 +2544,585 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A161" sqref="A161:A213"/>
     </sheetView>
   </sheetViews>
@@ -3183,13 +3179,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="7"/>
@@ -3198,13 +3194,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
@@ -3213,13 +3209,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7"/>
@@ -3228,13 +3224,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7"/>
@@ -3243,13 +3239,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3257,13 +3253,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3272,13 +3268,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3287,13 +3283,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3302,13 +3298,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3317,13 +3313,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3332,13 +3328,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3347,13 +3343,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3362,13 +3358,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -3377,13 +3373,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3392,13 +3388,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3407,13 +3403,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3422,13 +3418,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3437,13 +3433,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3452,13 +3448,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -3467,1163 +3463,1163 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D108" t="s">
         <v>42</v>
@@ -4631,13 +4627,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D109" t="s">
         <v>42</v>
@@ -4645,13 +4641,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D110" t="s">
         <v>42</v>
@@ -4659,13 +4655,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
         <v>42</v>
@@ -4673,13 +4669,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
         <v>42</v>
@@ -4687,13 +4683,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
         <v>42</v>
@@ -4701,13 +4697,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D114" t="s">
         <v>42</v>
@@ -4715,13 +4711,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
         <v>42</v>
@@ -4729,13 +4725,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
         <v>42</v>
@@ -4743,13 +4739,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D117" t="s">
         <v>42</v>
@@ -4757,13 +4753,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D118" t="s">
         <v>42</v>
@@ -4771,13 +4767,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D119" t="s">
         <v>42</v>
@@ -4785,13 +4781,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D120" t="s">
         <v>42</v>
@@ -4799,13 +4795,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D121" t="s">
         <v>42</v>
@@ -4813,13 +4809,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
         <v>42</v>
@@ -4827,13 +4823,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D123" t="s">
         <v>42</v>
@@ -4841,13 +4837,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D124" t="s">
         <v>42</v>
@@ -4855,13 +4851,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D125" t="s">
         <v>42</v>
@@ -4869,13 +4865,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D126" t="s">
         <v>42</v>
@@ -4883,13 +4879,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D127" t="s">
         <v>42</v>
@@ -4897,13 +4893,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D128" t="s">
         <v>42</v>
@@ -4911,13 +4907,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
         <v>42</v>
@@ -4925,13 +4921,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D130" t="s">
         <v>42</v>
@@ -4939,13 +4935,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D131" t="s">
         <v>42</v>
@@ -4953,13 +4949,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
         <v>42</v>
@@ -4967,13 +4963,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
         <v>42</v>
@@ -4981,13 +4977,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134" t="s">
         <v>42</v>
@@ -4995,13 +4991,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
         <v>42</v>
@@ -5009,13 +5005,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
         <v>42</v>
@@ -5023,13 +5019,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
         <v>42</v>
@@ -5037,13 +5033,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D138" t="s">
         <v>42</v>
@@ -5051,13 +5047,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D139" t="s">
         <v>42</v>
@@ -5065,13 +5061,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D140" t="s">
         <v>42</v>
@@ -5079,13 +5075,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D141" t="s">
         <v>42</v>
@@ -5093,13 +5089,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D142" t="s">
         <v>42</v>
@@ -5107,13 +5103,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
         <v>42</v>
@@ -5121,13 +5117,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D144" t="s">
         <v>42</v>
@@ -5135,13 +5131,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
         <v>42</v>
@@ -5149,13 +5145,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D146" t="s">
         <v>42</v>
@@ -5163,13 +5159,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D147" t="s">
         <v>42</v>
@@ -5177,13 +5173,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
         <v>42</v>
@@ -5191,13 +5187,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D149" t="s">
         <v>42</v>
@@ -5205,13 +5201,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D150" t="s">
         <v>42</v>
@@ -5219,13 +5215,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D151" t="s">
         <v>42</v>
@@ -5233,13 +5229,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D152" t="s">
         <v>42</v>
@@ -5247,13 +5243,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D153" t="s">
         <v>42</v>
@@ -5261,13 +5257,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D154" t="s">
         <v>42</v>
@@ -5275,13 +5271,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D155" t="s">
         <v>42</v>
@@ -5289,13 +5285,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
         <v>42</v>
@@ -5303,13 +5299,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D157" t="s">
         <v>42</v>
@@ -5317,13 +5313,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D158" t="s">
         <v>42</v>
@@ -5331,13 +5327,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D159" t="s">
         <v>42</v>
@@ -5345,13 +5341,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D160" t="s">
         <v>42</v>
@@ -5359,10 +5355,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>41</v>
@@ -5373,10 +5369,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>41</v>
@@ -5387,10 +5383,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>41</v>
@@ -5401,10 +5397,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>41</v>
@@ -5415,10 +5411,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>41</v>
@@ -5429,10 +5425,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>41</v>
@@ -5443,10 +5439,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>41</v>
@@ -5457,10 +5453,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>41</v>
@@ -5471,10 +5467,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>41</v>
@@ -5485,10 +5481,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>41</v>
@@ -5499,10 +5495,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>41</v>
@@ -5513,10 +5509,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>41</v>
@@ -5527,10 +5523,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>41</v>
@@ -5541,10 +5537,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>41</v>
@@ -5555,10 +5551,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>41</v>
@@ -5569,10 +5565,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>41</v>
@@ -5583,10 +5579,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>41</v>
@@ -5597,10 +5593,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>41</v>
@@ -5611,10 +5607,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>41</v>
@@ -5625,10 +5621,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>41</v>
@@ -5639,10 +5635,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>41</v>
@@ -5653,10 +5649,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>41</v>
@@ -5667,10 +5663,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>41</v>
@@ -5681,10 +5677,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>41</v>
@@ -5695,10 +5691,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>41</v>
@@ -5709,10 +5705,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>41</v>
@@ -5723,10 +5719,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>41</v>
@@ -5737,10 +5733,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>41</v>
@@ -5751,10 +5747,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>41</v>
@@ -5765,10 +5761,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>41</v>
@@ -5779,10 +5775,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>41</v>
@@ -5793,10 +5789,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>41</v>
@@ -5807,10 +5803,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>41</v>
@@ -5821,10 +5817,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>41</v>
@@ -5835,10 +5831,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>41</v>
@@ -5849,10 +5845,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>41</v>
@@ -5863,10 +5859,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>41</v>
@@ -5877,10 +5873,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>41</v>
@@ -5891,10 +5887,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>41</v>
@@ -5905,10 +5901,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>41</v>
@@ -5919,10 +5915,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>41</v>
@@ -5933,10 +5929,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>41</v>
@@ -5947,10 +5943,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>41</v>
@@ -5961,10 +5957,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>41</v>
@@ -5975,10 +5971,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>41</v>
@@ -5989,10 +5985,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>41</v>
@@ -6003,10 +5999,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>41</v>
@@ -6017,10 +6013,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>41</v>
@@ -6031,10 +6027,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>41</v>
@@ -6045,10 +6041,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>41</v>
@@ -6059,10 +6055,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>41</v>
@@ -6073,10 +6069,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>41</v>
@@ -6087,10 +6083,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>41</v>

--- a/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
+++ b/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62AAA7-1960-0546-876C-ADFEEE844763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1288F019-08B2-0C4C-8F32-CCF9E3A3C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="249">
   <si>
     <t>Prefix</t>
   </si>
@@ -730,6 +730,60 @@
   </si>
   <si>
     <t>http://qudt.org/2.1/schema/qudt/</t>
+  </si>
+  <si>
+    <t>solar:hasChemical</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q3027893</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q2025</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q37129</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q151313</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q52858</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q151324</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q131189</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q151335</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q134192</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q151353</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q2799651</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q14982</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q153</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q61457</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q161233</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q161210</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q47512</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2518,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A36" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3134,17 +3188,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A213"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
@@ -6094,6 +6148,729 @@
       <c r="D213" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C214" t="s">
+        <v>232</v>
+      </c>
+      <c r="D214" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C215" t="s">
+        <v>233</v>
+      </c>
+      <c r="D215" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C216" t="s">
+        <v>234</v>
+      </c>
+      <c r="D216" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C217" t="s">
+        <v>235</v>
+      </c>
+      <c r="D217" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C218" t="s">
+        <v>236</v>
+      </c>
+      <c r="D218" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C219" t="s">
+        <v>237</v>
+      </c>
+      <c r="D219" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C220" t="s">
+        <v>238</v>
+      </c>
+      <c r="D220" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C221" t="s">
+        <v>239</v>
+      </c>
+      <c r="D221" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C222" t="s">
+        <v>240</v>
+      </c>
+      <c r="D222" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C223" t="s">
+        <v>241</v>
+      </c>
+      <c r="D223" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C224" t="s">
+        <v>242</v>
+      </c>
+      <c r="D224" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C225" t="s">
+        <v>243</v>
+      </c>
+      <c r="D225" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226" t="s">
+        <v>244</v>
+      </c>
+      <c r="D226" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C227" t="s">
+        <v>245</v>
+      </c>
+      <c r="D227" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" t="s">
+        <v>246</v>
+      </c>
+      <c r="D228" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" t="s">
+        <v>247</v>
+      </c>
+      <c r="D229" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" t="s">
+        <v>248</v>
+      </c>
+      <c r="D230" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>233</v>
+      </c>
+      <c r="D232" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C234" t="s">
+        <v>235</v>
+      </c>
+      <c r="D234" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C235" t="s">
+        <v>236</v>
+      </c>
+      <c r="D235" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" t="s">
+        <v>237</v>
+      </c>
+      <c r="D236" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C238" t="s">
+        <v>239</v>
+      </c>
+      <c r="D238" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C239" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C240" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C241" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C242" t="s">
+        <v>243</v>
+      </c>
+      <c r="D242" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C243" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C244" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C245" t="s">
+        <v>246</v>
+      </c>
+      <c r="D245" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C246" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C248" t="s">
+        <v>232</v>
+      </c>
+      <c r="D248" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C249" t="s">
+        <v>233</v>
+      </c>
+      <c r="D249" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C250" t="s">
+        <v>234</v>
+      </c>
+      <c r="D250" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C251" t="s">
+        <v>235</v>
+      </c>
+      <c r="D251" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C252" t="s">
+        <v>236</v>
+      </c>
+      <c r="D252" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C253" t="s">
+        <v>237</v>
+      </c>
+      <c r="D253" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C254" t="s">
+        <v>238</v>
+      </c>
+      <c r="D254" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C255" t="s">
+        <v>239</v>
+      </c>
+      <c r="D255" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C256" t="s">
+        <v>240</v>
+      </c>
+      <c r="D256" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C257" t="s">
+        <v>241</v>
+      </c>
+      <c r="D257" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C258" t="s">
+        <v>242</v>
+      </c>
+      <c r="D258" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C259" t="s">
+        <v>243</v>
+      </c>
+      <c r="D259" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C260" t="s">
+        <v>244</v>
+      </c>
+      <c r="D260" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C261" t="s">
+        <v>245</v>
+      </c>
+      <c r="D261" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C262" t="s">
+        <v>246</v>
+      </c>
+      <c r="D262" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C263" t="s">
+        <v>247</v>
+      </c>
+      <c r="D263" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C264" t="s">
+        <v>248</v>
+      </c>
+      <c r="D264" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
+      <c r="B265" s="7"/>
+      <c r="D265" s="10"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="10"/>
+      <c r="B266" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
+++ b/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1288F019-08B2-0C4C-8F32-CCF9E3A3C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E60C97-ADBB-E744-A3E5-4E375AA25942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>https://schema.org/</t>
   </si>
   <si>
-    <t>http://w3id.org/solar/i/</t>
-  </si>
-  <si>
     <t>solar</t>
   </si>
   <si>
@@ -129,18 +126,6 @@
     <t>solarpec</t>
   </si>
   <si>
-    <t>http://w3id.org/solar/o/core#</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/o/ec#</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/o/pec#</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/o/pc#</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>http://w3id.org/solar/i/ExpExec/{ID}</t>
-  </si>
-  <si>
     <t>IRI</t>
   </si>
   <si>
@@ -576,159 +558,6 @@
     <t>solar:Output</t>
   </si>
   <si>
-    <t>http://w3id.org/solar/i/Output/H2_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CO_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH4_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H4_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H6_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C3H6_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C3H8_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C4H8_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C4H10_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C5H10_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C5H12_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH3OH_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H5OH_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH3COH_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/HCOOH_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH2O_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H4O2_mol_gh/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/H2_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CO_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH4_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H4_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H6_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C3H6_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C3H8_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C4H8_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C4H10_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C5H10_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C5H12_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH3OH_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H5OH_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH3COH_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/HCOOH_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH2O_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H4O2_mol_g/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/H2_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CO_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH4_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H4_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H6_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C3H6_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C3H8_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C4H8_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C4H10_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C5H10_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C5H12_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH3OH_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H5OH_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH3COH_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/HCOOH_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/CH2O_mol_m2h/{ID}</t>
-  </si>
-  <si>
-    <t>http://w3id.org/solar/i/Output/C2H4O2_mol_m2h/{ID}</t>
-  </si>
-  <si>
     <t>http://qudt.org/2.1/schema/qudt/</t>
   </si>
   <si>
@@ -784,6 +613,177 @@
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q47512</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/o/core#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/o/ec#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/o/pec#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/o/pc#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/H2_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CO_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH4_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H4_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H6_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C3H6_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C3H8_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C4H8_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C4H10_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C5H10_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C5H12_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH3OH_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H5OH_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH3COH_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/HCOOH_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH2O_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H4O2_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/H2_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CO_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH4_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H4_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H6_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C3H6_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C3H8_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C4H8_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C4H10_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C5H10_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C5H12_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH3OH_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H5OH_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH3COH_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/HCOOH_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH2O_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H4O2_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/H2_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CO_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH4_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H4_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H6_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C3H6_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C3H8_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C4H8_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C4H10_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C5H10_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C5H12_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH3OH_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H5OH_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH3COH_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/HCOOH_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CH2O_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/C2H4O2_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/ExpExec/{ID}</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,74 +1262,74 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1337,7 +1337,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1348,21 +1348,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{F8754CBA-ECDB-4444-8F8F-EBA6BEFBBCF3}"/>
+    <hyperlink ref="B17" r:id="rId1" display="http://w3id.org/solar/i/" xr:uid="{F8754CBA-ECDB-4444-8F8F-EBA6BEFBBCF3}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{4E1D75EA-0423-7E40-BBCD-B6BD079FA83E}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{D60B0DDB-58EA-FA48-A2CD-CBE7C55549A6}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{E6258B07-1D09-D64E-8845-A7B81A5A2C61}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{2020137E-84AB-514D-BAF7-3C2D4B74C97B}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{CF521197-C0A3-2C41-BF5A-FF8E2A80960F}"/>
     <hyperlink ref="B7" r:id="rId7" display="http://www.w3.org/1999/02/22-rdf-syntax-ns" xr:uid="{6007F098-C5FF-0643-B9DC-82BA12AA367E}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{3B076609-75F5-AD4D-87E5-4B4327E42A82}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{E7E95111-0E39-FA48-BBF9-9DA6F43FD532}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{7C43FBF5-071E-8047-ADF0-E4C4F8F15034}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{3171A55B-9780-7546-AA46-5496443E35C5}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{8267D84A-C1CB-034F-A51A-3E4AF338730F}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{B3279D13-FFF6-2B4F-AEBD-340BDE50F7B5}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{756BE30A-ED1A-4B47-9579-24C4F70F99E0}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{50D40236-C10B-CC4C-BBCD-6777D6B8823C}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{8267D84A-C1CB-034F-A51A-3E4AF338730F}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{B3279D13-FFF6-2B4F-AEBD-340BDE50F7B5}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{756BE30A-ED1A-4B47-9579-24C4F70F99E0}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{50D40236-C10B-CC4C-BBCD-6777D6B8823C}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{292813E9-8348-724A-8344-A564E1951709}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{136B2EAF-8298-2649-9DD7-02F51F395D64}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{4FC934C0-FB95-A54D-9E1C-F28A38DCE8E7}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{7137D7EC-6365-DF47-AAE7-ABCCF8980634}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1398,1168 +1398,1168 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2598,585 +2598,585 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
@@ -3219,7 +3219,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="7"/>
@@ -3248,13 +3248,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7"/>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7"/>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3307,13 +3307,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3352,13 +3352,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3412,13 +3412,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -3427,13 +3427,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3442,13 +3442,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3472,13 +3472,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3487,13 +3487,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3502,13 +3502,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -3517,3350 +3517,3350 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D91" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D124" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D139" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D142" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D145" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D147" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D148" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D149" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D150" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D151" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D152" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D153" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D154" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D155" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D156" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D157" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D162" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D164" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D165" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D169" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D170" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D171" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D172" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D173" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D174" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D175" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D176" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D177" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D178" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D179" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D180" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D181" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D183" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D184" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D185" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D186" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D187" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D188" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D189" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D190" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D191" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D192" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D193" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D194" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D195" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D196" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D197" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D198" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D199" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D200" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D201" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D203" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D204" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D206" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D207" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D208" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D209" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D210" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D211" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D212" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D213" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C214" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D214" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C215" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="D215" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C216" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="D216" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C217" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D217" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C218" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D218" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="D219" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C220" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D220" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C221" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D221" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C222" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="D222" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C223" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="D223" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C224" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D224" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C225" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="D225" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C226" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="D226" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C227" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D227" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C228" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="D228" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C229" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="D229" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C230" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="D230" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C231" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D231" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C232" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="D232" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C233" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="D233" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C234" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D234" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C235" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D235" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C236" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="D236" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C237" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D237" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C238" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C239" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="D239" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C240" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="D240" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C241" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C242" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="D242" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C243" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="D243" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C244" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D244" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C245" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="D245" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C246" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="D246" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C247" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="D247" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C248" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D248" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C249" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="D249" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C250" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="D250" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C251" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D251" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C252" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D252" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C253" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="D253" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C254" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D254" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C255" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D255" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C256" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="D256" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C257" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="D257" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C258" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D258" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C259" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="D259" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C260" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="D260" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C261" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D261" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C262" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="D262" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C263" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="D263" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C264" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="D264" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6875,7 +6875,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C161" r:id="rId1" xr:uid="{D3692B74-2175-CB40-996B-DF0B3D6E7C0D}"/>
+    <hyperlink ref="C161" r:id="rId1" display="http://w3id.org/solar/i/ExpExec/{ID}" xr:uid="{D3692B74-2175-CB40-996B-DF0B3D6E7C0D}"/>
     <hyperlink ref="C162:C213" r:id="rId2" display="http://w3id.org/solar/i/ExpExec/{ID}" xr:uid="{76187CD2-CD8D-D547-B7B8-1FD845306A3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
+++ b/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E60C97-ADBB-E744-A3E5-4E375AA25942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC0D02-B802-DA49-86A7-E9623A3FE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Predicate_Object" sheetId="4" r:id="rId4"/>
     <sheet name="Function" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="262">
   <si>
     <t>Prefix</t>
   </si>
@@ -784,6 +784,45 @@
   </si>
   <si>
     <t>https://w3id.org/solar/i/ExpExec/{ID}</t>
+  </si>
+  <si>
+    <t>CO2_mol_g</t>
+  </si>
+  <si>
+    <t>CO2_mol_gh</t>
+  </si>
+  <si>
+    <t>CO2_mol_m2h</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CO2_mol_g/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CO2_mol_gh/{ID}</t>
+  </si>
+  <si>
+    <t>https://w3id.org/solar/i/Output/CO2_mol_m2h/{ID}</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>{co2_prod_molg}</t>
+  </si>
+  <si>
+    <t>{co2_prod_molgh}</t>
+  </si>
+  <si>
+    <t>{co2_prod_molm2h}</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1997</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1998</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1999</t>
   </si>
 </sst>
 </file>
@@ -862,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -876,6 +915,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1371,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="A96" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A112" activeCellId="2" sqref="A108 A110 A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2562,6 +2602,72 @@
         <v>32</v>
       </c>
     </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2570,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A2:A18"/>
+    <sheetView topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3179,6 +3285,39 @@
         <v>247</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3188,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C213" sqref="C161:C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5414,7 +5553,7 @@
       <c r="B161" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D161" t="s">
@@ -5428,7 +5567,7 @@
       <c r="B162" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D162" t="s">
@@ -5442,7 +5581,7 @@
       <c r="B163" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D163" t="s">
@@ -5456,7 +5595,7 @@
       <c r="B164" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D164" t="s">
@@ -5470,7 +5609,7 @@
       <c r="B165" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D165" t="s">
@@ -5484,7 +5623,7 @@
       <c r="B166" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D166" t="s">
@@ -5498,7 +5637,7 @@
       <c r="B167" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D167" t="s">
@@ -5512,7 +5651,7 @@
       <c r="B168" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D168" t="s">
@@ -5526,7 +5665,7 @@
       <c r="B169" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D169" t="s">
@@ -5540,7 +5679,7 @@
       <c r="B170" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D170" t="s">
@@ -5554,7 +5693,7 @@
       <c r="B171" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D171" t="s">
@@ -5568,7 +5707,7 @@
       <c r="B172" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D172" t="s">
@@ -5582,7 +5721,7 @@
       <c r="B173" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D173" t="s">
@@ -5596,7 +5735,7 @@
       <c r="B174" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D174" t="s">
@@ -5610,7 +5749,7 @@
       <c r="B175" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D175" t="s">
@@ -5624,7 +5763,7 @@
       <c r="B176" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D176" t="s">
@@ -5638,7 +5777,7 @@
       <c r="B177" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D177" t="s">
@@ -5652,7 +5791,7 @@
       <c r="B178" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D178" t="s">
@@ -5666,7 +5805,7 @@
       <c r="B179" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D179" t="s">
@@ -5680,7 +5819,7 @@
       <c r="B180" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D180" t="s">
@@ -5694,7 +5833,7 @@
       <c r="B181" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D181" t="s">
@@ -5708,7 +5847,7 @@
       <c r="B182" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D182" t="s">
@@ -5722,7 +5861,7 @@
       <c r="B183" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D183" t="s">
@@ -5736,7 +5875,7 @@
       <c r="B184" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D184" t="s">
@@ -5750,7 +5889,7 @@
       <c r="B185" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D185" t="s">
@@ -5764,7 +5903,7 @@
       <c r="B186" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D186" t="s">
@@ -5778,7 +5917,7 @@
       <c r="B187" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D187" t="s">
@@ -5792,7 +5931,7 @@
       <c r="B188" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D188" t="s">
@@ -5806,7 +5945,7 @@
       <c r="B189" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D189" t="s">
@@ -5820,7 +5959,7 @@
       <c r="B190" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D190" t="s">
@@ -5834,7 +5973,7 @@
       <c r="B191" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D191" t="s">
@@ -5848,7 +5987,7 @@
       <c r="B192" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D192" t="s">
@@ -5862,7 +6001,7 @@
       <c r="B193" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D193" t="s">
@@ -5876,7 +6015,7 @@
       <c r="B194" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D194" t="s">
@@ -5890,7 +6029,7 @@
       <c r="B195" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D195" t="s">
@@ -5904,7 +6043,7 @@
       <c r="B196" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D196" t="s">
@@ -5918,7 +6057,7 @@
       <c r="B197" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D197" t="s">
@@ -5932,7 +6071,7 @@
       <c r="B198" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D198" t="s">
@@ -5946,7 +6085,7 @@
       <c r="B199" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D199" t="s">
@@ -5960,7 +6099,7 @@
       <c r="B200" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D200" t="s">
@@ -5974,7 +6113,7 @@
       <c r="B201" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D201" t="s">
@@ -5988,7 +6127,7 @@
       <c r="B202" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D202" t="s">
@@ -6002,7 +6141,7 @@
       <c r="B203" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D203" t="s">
@@ -6016,7 +6155,7 @@
       <c r="B204" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D204" t="s">
@@ -6030,7 +6169,7 @@
       <c r="B205" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D205" t="s">
@@ -6044,7 +6183,7 @@
       <c r="B206" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D206" t="s">
@@ -6058,7 +6197,7 @@
       <c r="B207" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D207" t="s">
@@ -6072,7 +6211,7 @@
       <c r="B208" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D208" t="s">
@@ -6086,7 +6225,7 @@
       <c r="B209" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D209" t="s">
@@ -6100,7 +6239,7 @@
       <c r="B210" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D210" t="s">
@@ -6114,7 +6253,7 @@
       <c r="B211" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D211" t="s">
@@ -6128,7 +6267,7 @@
       <c r="B212" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D212" t="s">
@@ -6142,7 +6281,7 @@
       <c r="B213" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D213" t="s">
@@ -6751,7 +6890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
         <v>93</v>
       </c>
@@ -6765,7 +6904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>94</v>
       </c>
@@ -6779,7 +6918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>95</v>
       </c>
@@ -6793,21 +6932,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D260" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>97</v>
       </c>
@@ -6821,7 +6960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>98</v>
       </c>
@@ -6835,7 +6974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>99</v>
       </c>
@@ -6849,7 +6988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>100</v>
       </c>
@@ -6863,21 +7002,211 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="10"/>
-      <c r="B265" s="7"/>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="D265" s="10"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="10"/>
-      <c r="B266" s="7"/>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D268" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D269" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D270" t="s">
+        <v>46</v>
+      </c>
+      <c r="E270" s="7"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D271" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D272" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D273" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D274" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D275" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D276" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D277" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D278" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D279" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C161" r:id="rId1" display="http://w3id.org/solar/i/ExpExec/{ID}" xr:uid="{D3692B74-2175-CB40-996B-DF0B3D6E7C0D}"/>
-    <hyperlink ref="C162:C213" r:id="rId2" display="http://w3id.org/solar/i/ExpExec/{ID}" xr:uid="{76187CD2-CD8D-D547-B7B8-1FD845306A3C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
+++ b/knowledge-graph/mappings/outputs-solarchem-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC0D02-B802-DA49-86A7-E9623A3FE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EEF08-CCAB-944E-929E-81A8308F6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="267">
   <si>
     <t>Prefix</t>
   </si>
@@ -823,6 +823,21 @@
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q1999</t>
+  </si>
+  <si>
+    <t>solar:selectivityPercentage</t>
+  </si>
+  <si>
+    <t>{h2_selectivity_molg}</t>
+  </si>
+  <si>
+    <t>{co_selectivity_molg}</t>
+  </si>
+  <si>
+    <t>{ch4_selectivity_molg}</t>
+  </si>
+  <si>
+    <t>{ch3oh_selectivity_molg}</t>
   </si>
 </sst>
 </file>
@@ -901,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -915,7 +930,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,9 +949,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -975,7 +989,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1081,7 +1095,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1223,7 +1237,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3292,7 +3306,7 @@
       <c r="B55" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3303,7 +3317,7 @@
       <c r="B56" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3314,7 +3328,7 @@
       <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3327,16 +3341,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C213" sqref="C161:C213"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -5553,7 +5567,7 @@
       <c r="B161" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" t="s">
         <v>248</v>
       </c>
       <c r="D161" t="s">
@@ -5567,7 +5581,7 @@
       <c r="B162" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" t="s">
         <v>248</v>
       </c>
       <c r="D162" t="s">
@@ -5581,7 +5595,7 @@
       <c r="B163" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" t="s">
         <v>248</v>
       </c>
       <c r="D163" t="s">
@@ -5595,7 +5609,7 @@
       <c r="B164" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" t="s">
         <v>248</v>
       </c>
       <c r="D164" t="s">
@@ -5609,7 +5623,7 @@
       <c r="B165" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" t="s">
         <v>248</v>
       </c>
       <c r="D165" t="s">
@@ -5623,7 +5637,7 @@
       <c r="B166" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" t="s">
         <v>248</v>
       </c>
       <c r="D166" t="s">
@@ -5637,7 +5651,7 @@
       <c r="B167" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" t="s">
         <v>248</v>
       </c>
       <c r="D167" t="s">
@@ -5651,7 +5665,7 @@
       <c r="B168" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" t="s">
         <v>248</v>
       </c>
       <c r="D168" t="s">
@@ -5665,7 +5679,7 @@
       <c r="B169" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" t="s">
         <v>248</v>
       </c>
       <c r="D169" t="s">
@@ -5679,7 +5693,7 @@
       <c r="B170" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" t="s">
         <v>248</v>
       </c>
       <c r="D170" t="s">
@@ -5693,7 +5707,7 @@
       <c r="B171" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" t="s">
         <v>248</v>
       </c>
       <c r="D171" t="s">
@@ -5707,7 +5721,7 @@
       <c r="B172" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" t="s">
         <v>248</v>
       </c>
       <c r="D172" t="s">
@@ -5721,7 +5735,7 @@
       <c r="B173" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" t="s">
         <v>248</v>
       </c>
       <c r="D173" t="s">
@@ -5735,7 +5749,7 @@
       <c r="B174" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" t="s">
         <v>248</v>
       </c>
       <c r="D174" t="s">
@@ -5749,7 +5763,7 @@
       <c r="B175" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" t="s">
         <v>248</v>
       </c>
       <c r="D175" t="s">
@@ -5763,7 +5777,7 @@
       <c r="B176" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" t="s">
         <v>248</v>
       </c>
       <c r="D176" t="s">
@@ -5777,7 +5791,7 @@
       <c r="B177" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" t="s">
         <v>248</v>
       </c>
       <c r="D177" t="s">
@@ -5791,7 +5805,7 @@
       <c r="B178" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" t="s">
         <v>248</v>
       </c>
       <c r="D178" t="s">
@@ -5805,7 +5819,7 @@
       <c r="B179" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" t="s">
         <v>248</v>
       </c>
       <c r="D179" t="s">
@@ -5819,7 +5833,7 @@
       <c r="B180" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" t="s">
         <v>248</v>
       </c>
       <c r="D180" t="s">
@@ -5833,7 +5847,7 @@
       <c r="B181" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" t="s">
         <v>248</v>
       </c>
       <c r="D181" t="s">
@@ -5847,7 +5861,7 @@
       <c r="B182" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" t="s">
         <v>248</v>
       </c>
       <c r="D182" t="s">
@@ -5861,7 +5875,7 @@
       <c r="B183" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" t="s">
         <v>248</v>
       </c>
       <c r="D183" t="s">
@@ -5875,7 +5889,7 @@
       <c r="B184" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" t="s">
         <v>248</v>
       </c>
       <c r="D184" t="s">
@@ -5889,7 +5903,7 @@
       <c r="B185" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" t="s">
         <v>248</v>
       </c>
       <c r="D185" t="s">
@@ -5903,7 +5917,7 @@
       <c r="B186" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" t="s">
         <v>248</v>
       </c>
       <c r="D186" t="s">
@@ -5917,7 +5931,7 @@
       <c r="B187" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" t="s">
         <v>248</v>
       </c>
       <c r="D187" t="s">
@@ -5931,7 +5945,7 @@
       <c r="B188" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" t="s">
         <v>248</v>
       </c>
       <c r="D188" t="s">
@@ -5945,7 +5959,7 @@
       <c r="B189" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" t="s">
         <v>248</v>
       </c>
       <c r="D189" t="s">
@@ -5959,7 +5973,7 @@
       <c r="B190" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" t="s">
         <v>248</v>
       </c>
       <c r="D190" t="s">
@@ -5973,7 +5987,7 @@
       <c r="B191" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" t="s">
         <v>248</v>
       </c>
       <c r="D191" t="s">
@@ -5987,7 +6001,7 @@
       <c r="B192" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" t="s">
         <v>248</v>
       </c>
       <c r="D192" t="s">
@@ -6001,7 +6015,7 @@
       <c r="B193" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" t="s">
         <v>248</v>
       </c>
       <c r="D193" t="s">
@@ -6015,7 +6029,7 @@
       <c r="B194" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" t="s">
         <v>248</v>
       </c>
       <c r="D194" t="s">
@@ -6029,7 +6043,7 @@
       <c r="B195" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" t="s">
         <v>248</v>
       </c>
       <c r="D195" t="s">
@@ -6043,7 +6057,7 @@
       <c r="B196" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" t="s">
         <v>248</v>
       </c>
       <c r="D196" t="s">
@@ -6057,7 +6071,7 @@
       <c r="B197" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" t="s">
         <v>248</v>
       </c>
       <c r="D197" t="s">
@@ -6071,7 +6085,7 @@
       <c r="B198" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" t="s">
         <v>248</v>
       </c>
       <c r="D198" t="s">
@@ -6085,7 +6099,7 @@
       <c r="B199" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" t="s">
         <v>248</v>
       </c>
       <c r="D199" t="s">
@@ -6099,7 +6113,7 @@
       <c r="B200" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" t="s">
         <v>248</v>
       </c>
       <c r="D200" t="s">
@@ -6113,7 +6127,7 @@
       <c r="B201" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" t="s">
         <v>248</v>
       </c>
       <c r="D201" t="s">
@@ -6127,7 +6141,7 @@
       <c r="B202" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" t="s">
         <v>248</v>
       </c>
       <c r="D202" t="s">
@@ -6141,7 +6155,7 @@
       <c r="B203" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" t="s">
         <v>248</v>
       </c>
       <c r="D203" t="s">
@@ -6155,7 +6169,7 @@
       <c r="B204" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" t="s">
         <v>248</v>
       </c>
       <c r="D204" t="s">
@@ -6169,7 +6183,7 @@
       <c r="B205" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" t="s">
         <v>248</v>
       </c>
       <c r="D205" t="s">
@@ -6183,7 +6197,7 @@
       <c r="B206" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" t="s">
         <v>248</v>
       </c>
       <c r="D206" t="s">
@@ -6197,7 +6211,7 @@
       <c r="B207" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" t="s">
         <v>248</v>
       </c>
       <c r="D207" t="s">
@@ -6211,7 +6225,7 @@
       <c r="B208" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" t="s">
         <v>248</v>
       </c>
       <c r="D208" t="s">
@@ -6225,7 +6239,7 @@
       <c r="B209" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" t="s">
         <v>248</v>
       </c>
       <c r="D209" t="s">
@@ -6239,7 +6253,7 @@
       <c r="B210" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" t="s">
         <v>248</v>
       </c>
       <c r="D210" t="s">
@@ -6253,7 +6267,7 @@
       <c r="B211" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" t="s">
         <v>248</v>
       </c>
       <c r="D211" t="s">
@@ -6267,7 +6281,7 @@
       <c r="B212" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" t="s">
         <v>248</v>
       </c>
       <c r="D212" t="s">
@@ -6281,7 +6295,7 @@
       <c r="B213" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" t="s">
         <v>248</v>
       </c>
       <c r="D213" t="s">
@@ -6939,7 +6953,7 @@
       <c r="B260" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="C260" t="s">
         <v>187</v>
       </c>
       <c r="D260" t="s">
@@ -7128,7 +7142,7 @@
       <c r="B274" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C274" s="11" t="s">
+      <c r="C274" t="s">
         <v>248</v>
       </c>
       <c r="D274" t="s">
@@ -7142,7 +7156,7 @@
       <c r="B275" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C275" s="11" t="s">
+      <c r="C275" t="s">
         <v>248</v>
       </c>
       <c r="D275" t="s">
@@ -7156,7 +7170,7 @@
       <c r="B276" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C276" t="s">
         <v>248</v>
       </c>
       <c r="D276" t="s">
@@ -7170,7 +7184,7 @@
       <c r="B277" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C277" s="11" t="s">
+      <c r="C277" t="s">
         <v>259</v>
       </c>
       <c r="D277" t="s">
@@ -7184,7 +7198,7 @@
       <c r="B278" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="C278" t="s">
         <v>260</v>
       </c>
       <c r="D278" t="s">
@@ -7198,11 +7212,67 @@
       <c r="B279" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="C279" t="s">
         <v>261</v>
       </c>
       <c r="D279" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C280" t="s">
+        <v>263</v>
+      </c>
+      <c r="D280" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C281" t="s">
+        <v>264</v>
+      </c>
+      <c r="D281" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C282" t="s">
+        <v>265</v>
+      </c>
+      <c r="D282" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C283" t="s">
+        <v>266</v>
+      </c>
+      <c r="D283" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
